--- a/grupos.xlsx
+++ b/grupos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1852D220-7FCC-4FE5-910F-1B36E961C4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A91AC-C06F-4F87-8A0B-8726FC2CB624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{C92F00AF-914B-4E3D-93BC-DD442AAA0EB4}"/>
   </bookViews>
@@ -952,7 +952,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,19 +1249,19 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1275,16 +1275,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">

--- a/grupos.xlsx
+++ b/grupos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7A91AC-C06F-4F87-8A0B-8726FC2CB624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2384B44-F68D-4D95-9168-381E56AC3999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{C92F00AF-914B-4E3D-93BC-DD442AAA0EB4}"/>
   </bookViews>
@@ -952,7 +952,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,19 +1295,19 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1324,13 +1324,13 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos.xlsx
+++ b/grupos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2384B44-F68D-4D95-9168-381E56AC3999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E851491D-59A7-42D1-892E-52612250687F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{C92F00AF-914B-4E3D-93BC-DD442AAA0EB4}"/>
   </bookViews>
@@ -952,7 +952,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,7 +961,7 @@
     <col min="2" max="2" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -996,19 +996,19 @@
         <v>4</v>
       </c>
       <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
       <c r="F2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,19 +1019,19 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1045,16 +1045,16 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>-11</v>
+      </c>
+      <c r="G4">
         <v>2</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>-4</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,13 +1071,13 @@
         <v>6</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>2</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/grupos.xlsx
+++ b/grupos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E851491D-59A7-42D1-892E-52612250687F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71882703-7945-450F-8638-DAA4E6B85B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{C92F00AF-914B-4E3D-93BC-DD442AAA0EB4}"/>
   </bookViews>
@@ -952,7 +952,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,16 +1091,16 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,19 +1111,19 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
       <c r="G7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1134,19 +1134,19 @@
         <v>9</v>
       </c>
       <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>5</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>2</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1160,16 +1160,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">

--- a/grupos.xlsx
+++ b/grupos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71882703-7945-450F-8638-DAA4E6B85B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E514973E-FF5D-4552-AEF2-F1C45A3A42B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{C92F00AF-914B-4E3D-93BC-DD442AAA0EB4}"/>
   </bookViews>
@@ -952,7 +952,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,19 +1180,19 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
         <v>2</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1229,16 +1229,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">

--- a/grupos.xlsx
+++ b/grupos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E514973E-FF5D-4552-AEF2-F1C45A3A42B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDD17F3-7A5A-498D-9F13-90AA0DD378C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{C92F00AF-914B-4E3D-93BC-DD442AAA0EB4}"/>
   </bookViews>
@@ -952,7 +952,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,19 +1249,19 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
+        <v>9</v>
+      </c>
+      <c r="E13">
         <v>6</v>
-      </c>
-      <c r="E13">
-        <v>3</v>
       </c>
       <c r="F13">
         <v>3</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1275,16 +1275,16 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F14">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,19 +1295,19 @@
         <v>16</v>
       </c>
       <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
         <v>3</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
       </c>
       <c r="F15">
         <v>5</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1318,19 +1318,19 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F16">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/grupos.xlsx
+++ b/grupos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDD17F3-7A5A-498D-9F13-90AA0DD378C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1D9DE-4E2A-4B79-9B38-DA8DD467637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{C92F00AF-914B-4E3D-93BC-DD442AAA0EB4}"/>
   </bookViews>
@@ -952,7 +952,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -999,16 +999,16 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1019,19 +1019,19 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
         <v>3</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1048,13 +1048,13 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1065,19 +1065,19 @@
         <v>4</v>
       </c>
       <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>3</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>5</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">

--- a/grupos.xlsx
+++ b/grupos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\AAA 2025\Futsal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC1D9DE-4E2A-4B79-9B38-DA8DD467637E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AA748A-ECF5-4960-B6A1-5EF90C175890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{C92F00AF-914B-4E3D-93BC-DD442AAA0EB4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{C92F00AF-914B-4E3D-93BC-DD442AAA0EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="grupos" sheetId="1" r:id="rId1"/>
@@ -951,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BAD8C15-E24A-4F54-BFB2-22B0C65C8981}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,7 +960,8 @@
     <col min="1" max="1" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="2.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="2.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1088,19 +1089,19 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F6">
-        <v>-5</v>
+        <v>-3</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1111,19 +1112,19 @@
         <v>9</v>
       </c>
       <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
       <c r="F7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1137,16 +1138,16 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1160,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F9">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1203,19 +1204,19 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
         <v>2</v>
-      </c>
-      <c r="E11">
-        <v>6</v>
-      </c>
-      <c r="F11">
-        <v>-4</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1229,16 +1230,16 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F12">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
